--- a/medicine/Sexualité et sexologie/Archives_of_Sexual_Behavior/Archives_of_Sexual_Behavior.xlsx
+++ b/medicine/Sexualité et sexologie/Archives_of_Sexual_Behavior/Archives_of_Sexual_Behavior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Archives of Sexual Behavior est le journal officiel de l'Académie internationale de recherche sur la sexualité à comité de lecture, en sexologie.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le journal a été créé en 1971 par Richard Green, qui fut son rédacteur en chef jusqu'en 2001[1] ; Kenneth Zucker occupe depuis ce poste. Il est publié par Springer Science+Business Media[2] et est devenu une revue de premier plan dans son domaine : la sexologie[3],[4].
-Il s'agit du journal officiel de l'Académie internationale de recherche sur la sexualité[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le journal a été créé en 1971 par Richard Green, qui fut son rédacteur en chef jusqu'en 2001 ; Kenneth Zucker occupe depuis ce poste. Il est publié par Springer Science+Business Media et est devenu une revue de premier plan dans son domaine : la sexologie,.
+Il s'agit du journal officiel de l'Académie internationale de recherche sur la sexualité.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Rédacteurs en chef</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Richard Green, qui est le fondateur du journal[6], de 1971 à 2001.
-Kenneth J. Zucker (élève de l'Université de Toronto)[7],[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Richard Green, qui est le fondateur du journal, de 1971 à 2001.
+Kenneth J. Zucker (élève de l'Université de Toronto),.</t>
         </is>
       </c>
     </row>
@@ -575,14 +591,16 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De 2002 à 2011, le nombre de manuscrits envoyés à la rédaction est passé de moins de 100 à environ 350 par an.
 Parmi les manuscrits soumis entre les années 2002-2010 :
 12,4 à 21,2 % d'entre eux ont été acceptés ou pré-approuvé
 28,4 à 47,5 % d'entre eux renvoyés pour modifications
 31,2 à 57,7 % des manuscrits ont été refusés
-Environ 75 % des manuscrits renvoyés pour un changement complet ont fini par être publiés, la grande majorité des autres n'ont pas été soumis à nouveau[7].
+Environ 75 % des manuscrits renvoyés pour un changement complet ont fini par être publiés, la grande majorité des autres n'ont pas été soumis à nouveau.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Catégories de l'article</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les types d'articles publiés dans la revue comprennent[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les types d'articles publiés dans la revue comprennent :
 la recherche empirique (à la fois quantitative et qualitative)
 des revues et des essais théoriques
 des rapports de cas cliniques
@@ -646,13 +666,15 @@
           <t>Nombre de citations, facteurs d'impact, score MNiSW</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Journal Citation Reports, le journal avait en 2013, un facteur d'impact de 2.783[8].
-En 2015, le magazine a été cité 5016 fois, et son facteur d'impact pour cette année était de 2.704, ce qui le plaçait[3],[9] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Journal Citation Reports, le journal avait en 2013, un facteur d'impact de 2.783.
+En 2015, le magazine a été cité 5016 fois, et son facteur d'impact pour cette année était de 2.704, ce qui le plaçait, :
 3e sur 95 revues dans la catégorie des « sciences sociales interdisciplinaires »,
 27e sur 122 revues dans la catégorie « psychologie clinique ».
-Sur la liste des revues polonaises notées par le ministère de la Science et de l'Enseignement supérieur en 2015, « Archives of Sexual Behaviour » a reçu 45 points[10].
+Sur la liste des revues polonaises notées par le ministère de la Science et de l'Enseignement supérieur en 2015, « Archives of Sexual Behaviour » a reçu 45 points.
 </t>
         </is>
       </c>
@@ -681,9 +703,11 @@
           <t>Indexation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archives of Sexual Behavior est indexé par Biological Abstracts, Current Contents/Social &amp; Behavioral Sciences, Embase, Family &amp; Society Studies Worldwide, Health and Safety Science Abstracts, Index Medicus/MEDLINE, Psychological Abstracts, PsycINFO, Referativny Zhurnal, Risk Abstracts, Sage Family Studies Abstracts, Scopus, Sexual and Relations Therapy, Social Sciences Citation Index, Social Science Index,Sociological Abstracts, Studies on Women &amp; Gender Abstracts, and Violence and Abuse Abstracts[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archives of Sexual Behavior est indexé par Biological Abstracts, Current Contents/Social &amp; Behavioral Sciences, Embase, Family &amp; Society Studies Worldwide, Health and Safety Science Abstracts, Index Medicus/MEDLINE, Psychological Abstracts, PsycINFO, Referativny Zhurnal, Risk Abstracts, Sage Family Studies Abstracts, Scopus, Sexual and Relations Therapy, Social Sciences Citation Index, Social Science Index,Sociological Abstracts, Studies on Women &amp; Gender Abstracts, and Violence and Abuse Abstracts.
 </t>
         </is>
       </c>
